--- a/DATA_FILES/X_TEST_EXCEL_ADD_DATA_ROWS.xlsx
+++ b/DATA_FILES/X_TEST_EXCEL_ADD_DATA_ROWS.xlsx
@@ -457,7 +457,7 @@
         <v>55000</v>
       </c>
       <c r="C3" t="n">
-        <v>66000</v>
+        <v>66777</v>
       </c>
     </row>
   </sheetData>
